--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf10-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf10-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.33623733333333</v>
+        <v>25.70233233333333</v>
       </c>
       <c r="H2">
-        <v>43.008712</v>
+        <v>77.10699700000001</v>
       </c>
       <c r="I2">
-        <v>0.8014624210856858</v>
+        <v>0.9446552342719222</v>
       </c>
       <c r="J2">
-        <v>0.801462421085686</v>
+        <v>0.9446552342719222</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.776574666666667</v>
+        <v>0.06861733333333334</v>
       </c>
       <c r="N2">
-        <v>11.329724</v>
+        <v>0.205852</v>
       </c>
       <c r="O2">
-        <v>0.9855052394405499</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="P2">
-        <v>0.9855052394405499</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="Q2">
-        <v>54.14187072838757</v>
+        <v>1.763625505160445</v>
       </c>
       <c r="R2">
-        <v>487.276836555488</v>
+        <v>15.872629546444</v>
       </c>
       <c r="S2">
-        <v>0.7898454151946516</v>
+        <v>0.01562505754445328</v>
       </c>
       <c r="T2">
-        <v>0.7898454151946518</v>
+        <v>0.01562505754445328</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.33623733333333</v>
+        <v>25.70233233333333</v>
       </c>
       <c r="H3">
-        <v>43.008712</v>
+        <v>77.10699700000001</v>
       </c>
       <c r="I3">
-        <v>0.8014624210856858</v>
+        <v>0.9446552342719222</v>
       </c>
       <c r="J3">
-        <v>0.801462421085686</v>
+        <v>0.9446552342719222</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.05554566666666666</v>
+        <v>3.776574666666666</v>
       </c>
       <c r="N3">
-        <v>0.166637</v>
+        <v>11.329724</v>
       </c>
       <c r="O3">
-        <v>0.01449476055945007</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="P3">
-        <v>0.01449476055945007</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="Q3">
-        <v>0.7963158601715555</v>
+        <v>97.06677716431422</v>
       </c>
       <c r="R3">
-        <v>7.166842741543999</v>
+        <v>873.6009944788279</v>
       </c>
       <c r="S3">
-        <v>0.01161700589103416</v>
+        <v>0.8599750765733313</v>
       </c>
       <c r="T3">
-        <v>0.01161700589103417</v>
+        <v>0.8599750765733313</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.234533</v>
+        <v>25.70233233333333</v>
       </c>
       <c r="H4">
-        <v>0.703599</v>
+        <v>77.10699700000001</v>
       </c>
       <c r="I4">
-        <v>0.013111486761414</v>
+        <v>0.9446552342719222</v>
       </c>
       <c r="J4">
-        <v>0.013111486761414</v>
+        <v>0.9446552342719222</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.776574666666667</v>
+        <v>0.303255</v>
       </c>
       <c r="N4">
-        <v>11.329724</v>
+        <v>0.909765</v>
       </c>
       <c r="O4">
-        <v>0.9855052394405499</v>
+        <v>0.07310084954683041</v>
       </c>
       <c r="P4">
-        <v>0.9855052394405499</v>
+        <v>0.07310084954683042</v>
       </c>
       <c r="Q4">
-        <v>0.8857313862973334</v>
+        <v>7.794360791745</v>
       </c>
       <c r="R4">
-        <v>7.971582476676</v>
+        <v>70.149247125705</v>
       </c>
       <c r="S4">
-        <v>0.0129214389002289</v>
+        <v>0.06905510015413761</v>
       </c>
       <c r="T4">
-        <v>0.01292143890022891</v>
+        <v>0.06905510015413763</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,10 +729,10 @@
         <v>0.703599</v>
       </c>
       <c r="I5">
-        <v>0.013111486761414</v>
+        <v>0.00861995025144722</v>
       </c>
       <c r="J5">
-        <v>0.013111486761414</v>
+        <v>0.00861995025144722</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,33 +741,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05554566666666666</v>
+        <v>0.06861733333333334</v>
       </c>
       <c r="N5">
-        <v>0.166637</v>
+        <v>0.205852</v>
       </c>
       <c r="O5">
-        <v>0.01449476055945007</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="P5">
-        <v>0.01449476055945007</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="Q5">
-        <v>0.01302729184033333</v>
+        <v>0.01609302903866667</v>
       </c>
       <c r="R5">
-        <v>0.117245626563</v>
+        <v>0.144837261348</v>
       </c>
       <c r="S5">
-        <v>0.0001900478611850953</v>
+        <v>0.0001425781743674933</v>
       </c>
       <c r="T5">
-        <v>0.0001900478611850954</v>
+        <v>0.0001425781743674933</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,22 +779,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3035833333333333</v>
+        <v>0.234533</v>
       </c>
       <c r="H6">
-        <v>0.9107499999999999</v>
+        <v>0.703599</v>
       </c>
       <c r="I6">
-        <v>0.01697172191540608</v>
+        <v>0.00861995025144722</v>
       </c>
       <c r="J6">
-        <v>0.01697172191540608</v>
+        <v>0.00861995025144722</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,33 +803,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.776574666666667</v>
+        <v>3.776574666666666</v>
       </c>
       <c r="N6">
         <v>11.329724</v>
       </c>
       <c r="O6">
-        <v>0.9855052394405499</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="P6">
-        <v>0.9855052394405499</v>
+        <v>0.9103586635352137</v>
       </c>
       <c r="Q6">
-        <v>1.146505125888889</v>
+        <v>0.8857313862973333</v>
       </c>
       <c r="R6">
-        <v>10.318546133</v>
+        <v>7.971582476675999</v>
       </c>
       <c r="S6">
-        <v>0.01672572086996069</v>
+        <v>0.00784724639064752</v>
       </c>
       <c r="T6">
-        <v>0.0167257208699607</v>
+        <v>0.00784724639064752</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>22</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.234533</v>
+      </c>
+      <c r="H7">
+        <v>0.703599</v>
+      </c>
+      <c r="I7">
+        <v>0.00861995025144722</v>
+      </c>
+      <c r="J7">
+        <v>0.00861995025144722</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="L7">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G7">
-        <v>0.3035833333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.9107499999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.01697172191540608</v>
-      </c>
-      <c r="J7">
-        <v>0.01697172191540608</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M7">
-        <v>0.05554566666666666</v>
+        <v>0.303255</v>
       </c>
       <c r="N7">
-        <v>0.166637</v>
+        <v>0.909765</v>
       </c>
       <c r="O7">
-        <v>0.01449476055945007</v>
+        <v>0.07310084954683041</v>
       </c>
       <c r="P7">
-        <v>0.01449476055945007</v>
+        <v>0.07310084954683042</v>
       </c>
       <c r="Q7">
-        <v>0.01686273863888888</v>
+        <v>0.07112330491499999</v>
       </c>
       <c r="R7">
-        <v>0.15176464775</v>
+        <v>0.640109744235</v>
       </c>
       <c r="S7">
-        <v>0.0002460010454453824</v>
+        <v>0.0006301256864322061</v>
       </c>
       <c r="T7">
-        <v>0.0002460010454453825</v>
+        <v>0.0006301256864322064</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.013244</v>
+        <v>0.2552456666666666</v>
       </c>
       <c r="H8">
-        <v>9.039732000000001</v>
+        <v>0.765737</v>
       </c>
       <c r="I8">
-        <v>0.1684543702374939</v>
+        <v>0.009381216922838777</v>
       </c>
       <c r="J8">
-        <v>0.168454370237494</v>
+        <v>0.009381216922838777</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.776574666666667</v>
+        <v>0.06861733333333334</v>
       </c>
       <c r="N8">
-        <v>11.329724</v>
+        <v>0.205852</v>
       </c>
       <c r="O8">
-        <v>0.9855052394405499</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="P8">
-        <v>0.9855052394405499</v>
+        <v>0.01654048691795588</v>
       </c>
       <c r="Q8">
-        <v>11.37974095488534</v>
+        <v>0.01751427699155556</v>
       </c>
       <c r="R8">
-        <v>102.417668593968</v>
+        <v>0.157628492924</v>
       </c>
       <c r="S8">
-        <v>0.1660126644757085</v>
+        <v>0.0001551698957867211</v>
       </c>
       <c r="T8">
-        <v>0.1660126644757086</v>
+        <v>0.0001551698957867211</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.2552456666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.765737</v>
+      </c>
+      <c r="I9">
+        <v>0.009381216922838777</v>
+      </c>
+      <c r="J9">
+        <v>0.009381216922838777</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.776574666666666</v>
+      </c>
+      <c r="N9">
+        <v>11.329724</v>
+      </c>
+      <c r="O9">
+        <v>0.9103586635352137</v>
+      </c>
+      <c r="P9">
+        <v>0.9103586635352137</v>
+      </c>
+      <c r="Q9">
+        <v>0.9639543185097776</v>
+      </c>
+      <c r="R9">
+        <v>8.675588866587999</v>
+      </c>
+      <c r="S9">
+        <v>0.008540272100209439</v>
+      </c>
+      <c r="T9">
+        <v>0.008540272100209439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2552456666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.765737</v>
+      </c>
+      <c r="I10">
+        <v>0.009381216922838777</v>
+      </c>
+      <c r="J10">
+        <v>0.009381216922838777</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.303255</v>
+      </c>
+      <c r="N10">
+        <v>0.909765</v>
+      </c>
+      <c r="O10">
+        <v>0.07310084954683041</v>
+      </c>
+      <c r="P10">
+        <v>0.07310084954683042</v>
+      </c>
+      <c r="Q10">
+        <v>0.077404524645</v>
+      </c>
+      <c r="R10">
+        <v>0.696640721805</v>
+      </c>
+      <c r="S10">
+        <v>0.0006857749268426168</v>
+      </c>
+      <c r="T10">
+        <v>0.000685774926842617</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.013244</v>
-      </c>
-      <c r="H9">
-        <v>9.039732000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.1684543702374939</v>
-      </c>
-      <c r="J9">
-        <v>0.168454370237494</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.016050666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.048152</v>
+      </c>
+      <c r="I11">
+        <v>0.03734359855379179</v>
+      </c>
+      <c r="J11">
+        <v>0.03734359855379179</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M9">
-        <v>0.05554566666666666</v>
-      </c>
-      <c r="N9">
-        <v>0.166637</v>
-      </c>
-      <c r="O9">
-        <v>0.01449476055945007</v>
-      </c>
-      <c r="P9">
-        <v>0.01449476055945007</v>
-      </c>
-      <c r="Q9">
-        <v>0.1673726468093333</v>
-      </c>
-      <c r="R9">
-        <v>1.506353821284</v>
-      </c>
-      <c r="S9">
-        <v>0.002441705761785427</v>
-      </c>
-      <c r="T9">
-        <v>0.002441705761785427</v>
+      <c r="M11">
+        <v>0.06861733333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.205852</v>
+      </c>
+      <c r="O11">
+        <v>0.01654048691795588</v>
+      </c>
+      <c r="P11">
+        <v>0.01654048691795588</v>
+      </c>
+      <c r="Q11">
+        <v>0.06971868727822222</v>
+      </c>
+      <c r="R11">
+        <v>0.627468185504</v>
+      </c>
+      <c r="S11">
+        <v>0.0006176813033483894</v>
+      </c>
+      <c r="T11">
+        <v>0.0006176813033483894</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.016050666666667</v>
+      </c>
+      <c r="H12">
+        <v>3.048152</v>
+      </c>
+      <c r="I12">
+        <v>0.03734359855379179</v>
+      </c>
+      <c r="J12">
+        <v>0.03734359855379179</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.776574666666666</v>
+      </c>
+      <c r="N12">
+        <v>11.329724</v>
+      </c>
+      <c r="O12">
+        <v>0.9103586635352137</v>
+      </c>
+      <c r="P12">
+        <v>0.9103586635352137</v>
+      </c>
+      <c r="Q12">
+        <v>3.837191207783111</v>
+      </c>
+      <c r="R12">
+        <v>34.534720870048</v>
+      </c>
+      <c r="S12">
+        <v>0.03399606847102543</v>
+      </c>
+      <c r="T12">
+        <v>0.03399606847102543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.016050666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.048152</v>
+      </c>
+      <c r="I13">
+        <v>0.03734359855379179</v>
+      </c>
+      <c r="J13">
+        <v>0.03734359855379179</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.303255</v>
+      </c>
+      <c r="N13">
+        <v>0.909765</v>
+      </c>
+      <c r="O13">
+        <v>0.07310084954683041</v>
+      </c>
+      <c r="P13">
+        <v>0.07310084954683042</v>
+      </c>
+      <c r="Q13">
+        <v>0.30812244492</v>
+      </c>
+      <c r="R13">
+        <v>2.77310200428</v>
+      </c>
+      <c r="S13">
+        <v>0.002729848779417967</v>
+      </c>
+      <c r="T13">
+        <v>0.002729848779417968</v>
       </c>
     </row>
   </sheetData>
